--- a/biology/Biochimie/Hydrolase/Hydrolase.xlsx
+++ b/biology/Biochimie/Hydrolase/Hydrolase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hydrolases constituent une classe d'enzymes qui catalysent les réactions d'hydrolyse de molécules suivant la réaction générale :
 R-R' + H2O  
@@ -525,9 +537,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Groupe EC3.1 (estérases)
-Elles agissent sur les liaisons ester de type R-CO-O-R'.
-EC 3.1.1 : Hydrolases spécifiques des esters carboxyliques
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles agissent sur les liaisons ester de type R-CO-O-R'.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>EC 3.1.1 : Hydrolases spécifiques des esters carboxyliques</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.1
 EC 3.1.1.1 : carboxylestérase
 EC 3.1.1.2 : arylestérase
@@ -612,7 +669,47 @@
 EC 3.1.1.81 : quorum-quenching N-acyl-homoserine lactonase
 EC 3.1.1.82 : phéophorbidase
 EC 3.1.1.83 : monoterpène ε-lactone-hydrolase
-EC 3.1.2 : Hydrolases spécifiques des thioesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>EC 3.1.2 : Hydrolases spécifiques des thioesters</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.2
 EC 3.1.2.1 : acétyl-CoA-hydrolase
 EC 3.1.2.2 : palmitoyl-CoA-hydrolase
@@ -641,7 +738,47 @@
 EC 3.1.2.25 : phénylacétyl-CoA-hydrolase
 EC 3.1.2.26 : acide biliaire-CoA-hydrolase
 EC 3.1.2.27 : choloyl-CoA-hydrolase
-EC 3.1.3 : Hydrolases spécifiques des liaisons monoester-phosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EC 3.1.3 : Hydrolases spécifiques des liaisons monoester-phosphoriques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.3
 EC 3.1.3.1 : phosphatase alcaline
 EC 3.1.3.2 : phosphatase acide
@@ -722,8 +859,48 @@
 EC 3.1.3.77 : aciréductone-synthase
 EC 3.1.3.78 : phosphatidylinositol-4,5-disphosphate 4-phosphatase
 EC 3.1.3.79 : mannosylfructose-phosphate phosphatase
-EC 3.1.3.98 : transférée vers EC 3.6.1.68 en 2016 [1]
-EC 3.1.4 : Hydrolases spécifiques des liaisons diester-phosphoriques
+EC 3.1.3.98 : transférée vers EC 3.6.1.68 en 2016 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>EC 3.1.4 : Hydrolases spécifiques des liaisons diester-phosphoriques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.4
 EC 3.1.4.1 : phosphodiestérase I
 EC 3.1.4.2 : glycérophosphocholine-phosphodiestérase
@@ -778,10 +955,90 @@
 EC 3.1.4.51 : glucose-1-phospho-D-mannosylglycoprotéine-phosphodiestérase
 EC 3.1.4.52 : GMPc-phosphodiestérase spécifique
 EC 3.1.4.53 : 3',5'-AMPc-phosphodiestérase
-EC 3.1.5 : Hydrolases spécifiques des liaisons monoester-triphosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>EC 3.1.5 : Hydrolases spécifiques des liaisons monoester-triphosphoriques</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.5
 EC 3.1.5.1 : désoxyguanosine-triphosphatase
-EC 3.1.6 : Hydrolases spécifiques des liaisons ester-sulfuriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>EC 3.1.6 : Hydrolases spécifiques des liaisons ester-sulfuriques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.6
 EC 3.1.6.1 : arylsulfatase
 EC 3.1.6.2 : stéryl-sulfatase
@@ -801,18 +1058,138 @@
 EC 3.1.6.16 : monométhyl-sulfatase
 EC 3.1.6.17 : D-lactate-2-sulfatase
 EC 3.1.6.18 : glucuronate-2-sulfatase
-EC 3.1.7 : Hydrolases spécifiques des liaisons monoester-diphosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>EC 3.1.7 : Hydrolases spécifiques des liaisons monoester-diphosphoriques</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.7
 EC 3.1.7.1 : prényl-diphosphatase
 EC 3.1.7.2 : guanosine-3',5'-bis(diphosphate) 3'-diphosphatase
 EC 3.1.7.3 : monoterpényl-diphosphatase
 EC 3.1.7.4 : sclaréol-cyclase
 EC 3.1.7.5 : géranylgéranyl-diphosphate-diphosphatase
-EC 3.1.8 : Hydrolases spécifiques des liaisons triester-phosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>EC 3.1.8 : Hydrolases spécifiques des liaisons triester-phosphoriques</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.8
 EC 3.1.8.1 : aryldialkylphosphatase
 EC 3.1.8.2 : diisopropyl-fluorophosphatase
-EC 3.1.11 : Exodésoxyribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>EC 3.1.11 : Exodésoxyribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.11
 EC 3.1.11.1 : exodésoxyribonucléase I
 EC 3.1.11.2 : exodésoxyribonucléase III
@@ -820,23 +1197,223 @@
 EC 3.1.11.4 : exodésoxyribonucléase (induite pas le phage SP3)
 EC 3.1.11.5 : exodésoxyribonucléase V
 EC 3.1.11.6 : exodésoxyribonucléase VII
-EC 3.1.13 : Exoribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EC 3.1.13 : Exoribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.13
 EC 3.1.13.1 : exoribonucléase II
 EC 3.1.13.2 : exoribonucléase H
 EC 3.1.13.3 : oligonucléotidase
 EC 3.1.13.4 : poly(A)-ribonucléase spécifique
 EC 3.1.13.5 : ribonucléase D
-EC 3.1.14 : Exoribonucléases productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>EC 3.1.14 : Exoribonucléases productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.14
 EC 3.1.14.1 : ribonucléase de levure
-EC 3.1.15 : Exonucléases actives à la fois sur l'ARN et sur l'ADN et produisant des 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>EC 3.1.15 : Exonucléases actives à la fois sur l'ARN et sur l'ADN et produisant des 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.15
 EC 3.1.15.1 : exonucléase de venin
-EC 3.1.16 : Exonucléases actives à la fois dur l'ARN et sur l'ADN et produisant des 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>EC 3.1.16 : Exonucléases actives à la fois dur l'ARN et sur l'ADN et produisant des 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.16
 EC 3.1.16.1 : exonucléase de la rate
-EC 3.1.21 : Endodésoxyribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>EC 3.1.21 : Endodésoxyribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.21
 EC 3.1.21.1 : désoxyribonucléase I
 EC 3.1.21.2 : désoxyribonucléase IV (induite pas le phage T4)
@@ -845,19 +1422,178 @@
 EC 3.1.21.5 : désoxyribonucléase à site spécifique de type III
 EC 3.1.21.6 : endodésoxyribonucléase à préférence CC
 EC 3.1.21.7 : désoxyribonucléase V
-EC 3.1.22 : Endodésoxyribonucléases productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>EC 3.1.22 : Endodésoxyribonucléases productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.22
 EC 3.1.22.1 : désoxyribonucléase II
 EC 3.1.22.2 : désoxyribonucléase K1 (Aspergillus)
 EC 3.1.22.3 : supprimée (maintenant EC 3.1.21.7)
 EC 3.1.22.4 : endodésoxyribonucléase spécifique de jonction
 EC 3.1.22.5 : désoxyribonucléase X
-EC 3.1.23 &amp; EC 3.1.24
-Endodésoxyribonucléases spécifiques incluses aujourd'hui dans EC 3.1.21.3, EC 3.1.21.4 et EC 3.1.21.5.
-EC 3.1.25 : Endodésoxyribonucléases spécifiques des bases abîmées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>EC 3.1.23 &amp; EC 3.1.24</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endodésoxyribonucléases spécifiques incluses aujourd'hui dans EC 3.1.21.3, EC 3.1.21.4 et EC 3.1.21.5.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>EC 3.1.25 : Endodésoxyribonucléases spécifiques des bases abîmées</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.25
 EC 3.1.25.1 : endodésoxyribonucléase à dimère pyrimidine
-EC 3.1.26 : Endoribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>EC 3.1.26 : Endoribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.26
 EC 3.1.26.1 : ribonucléase de Physarum polycephalum
 EC 3.1.26.2 : ribonucléase alpha
@@ -872,7 +1608,47 @@
 EC 3.1.26.11 : tRNase Z
 EC 3.1.26.12 : ribonucléase E
 EC 3.1.26.13 : ribonucléase H rétrovirale
-EC 3.1.27 : Endoribonucléases productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>EC 3.1.27 : Endoribonucléases productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.27
 EC 3.1.27.1 : ribonucléase T2
 EC 3.1.27.2 : ribonucléase de Bacillus subtilis
@@ -884,15 +1660,134 @@
 EC 3.1.27.8 : ribonucléase V
 EC 3.1.27.9 : endonucléase à intron ARN de transfert
 EC 3.1.27.10 : endonucléase à ARN ribosomique
-EC 3.1.30 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>EC 3.1.30 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.30
 EC 3.1.30.1 : nucléase S1 de Aspergillus
 EC 3.1.30.2 : nucléase de Serratia marcescens
-EC 3.1.31 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Groupe EC3.1 (estérases)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>EC 3.1.31 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.31
 EC 3.1.31.1 : nucléase micrococcale
-Groupe EC3.2 (glycosylases)
-EC 3.2.1 : Glycosidases (enzymes agissant autant sur les liaisons O-glycosidiques que sur les liaisons S-glycosidiques)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Groupe EC3.2 (glycosylases)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>EC 3.2.1 : Glycosidases (enzymes agissant autant sur les liaisons O-glycosidiques que sur les liaisons S-glycosidiques)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.2.1
 EC 3.2.1.1 : α-amylase
 EC 3.2.1.2 : β-amylase
@@ -1059,7 +1954,47 @@
 EC 3.2.1.163 : 1,6-α-D-mannosidase
 EC 3.2.1.164 : galactane endo-1,6-β-galactosidase
 EC 3.2.1.165 : exo-1,4-β-D-glucosaminidase
-EC 3.2.2 : Hydrolases spécifiques des liaisons N-glycosidiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Groupe EC3.2 (glycosylases)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>EC 3.2.2 : Hydrolases spécifiques des liaisons N-glycosidiques</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.2.2
 EC 3.2.2.1 : purine-nucléosidase
 EC 3.2.2.2 : inosine-nucléosidase
@@ -1090,15 +2025,133 @@
 EC 3.2.2.27 : uracil-ADN-glycosylase
 EC 3.2.2.28 : uracil-ADN double brin glycosylase
 EC 3.2.2.29 : thymine-ADN-glycosylase
-EC 3.2.3 : Hydrolases spécifiques des liaisons S-glycosidiques
-Groupe vide : la seule enzyme (EC 3.2.3.1) a été déplacée vers EC 3.2.1.147.
-Groupe EC3.3 (éther-hydrolases)
-EC 3.3.1 : Hydrolases spécifiques des liaisons thioéther et des trialkylsulfoniums
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Groupe EC3.2 (glycosylases)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>EC 3.2.3 : Hydrolases spécifiques des liaisons S-glycosidiques</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe vide : la seule enzyme (EC 3.2.3.1) a été déplacée vers EC 3.2.1.147.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Groupe EC3.3 (éther-hydrolases)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>EC 3.3.1 : Hydrolases spécifiques des liaisons thioéther et des trialkylsulfoniums</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.3.1
 EC 3.3.1.1 : adénosylhomocystéinase
 EC 3.3.1.2 : adénosylméthionine-hydrolase
 EC 3.3.1.3 : déplacée vers EC 3.2.1.148
-EC 3.3.2 : Autres éther-hydrolases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Groupe EC3.3 (éther-hydrolases)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>EC 3.3.2 : Autres éther-hydrolases</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.3.2
 EC 3.3.2.1 : isochorismatase
 EC 3.3.2.2 : alkénylglycérophosphocholine-hydrolase
@@ -1111,8 +2164,43 @@
 EC 3.3.2.9 : époxyde-hydrolase microsomale
 EC 3.3.2.10 : époxyde-hydrolase soluble
 EC 3.3.2.11 : cholestérol-5,6-oxyde-hydrolase
-Groupe EC3.4 (peptidases)
-Les sous-groupes EC3.4.1 à EC3.4.4 ont été supprimés et les enzymes autrefois répertoriées dans ces groupes réparties dans les groupes nouvellement créés (EC3.4.11 à EC3.4.24). La liste qui suit donne la correspondance entre l'ancienne numérotation et la nouvelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-groupes EC3.4.1 à EC3.4.4 ont été supprimés et les enzymes autrefois répertoriées dans ces groupes réparties dans les groupes nouvellement créés (EC3.4.11 à EC3.4.24). La liste qui suit donne la correspondance entre l'ancienne numérotation et la nouvelle.
 Liste des enzymes des groupes EC3.4.1 à EC3.4.4
 EC 3.4.1.1 → EC 3.4.11.1
 EC 3.4.1.2 → EC 3.4.11.2
@@ -1153,7 +2241,47 @@
 EC 3.4.4.23 → EC 3.4.23.5
 EC 3.4.4.24 → EC 3.4.22.32 et EC 3.4.22.33
 EC 3.4.4.25 : supprimée
-EC 3.4.11 : Aminopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>EC 3.4.11 : Aminopeptidases</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.11
 EC 3.4.11.1 : leucyl-aminopeptidase
 EC 3.4.11.2 : alanyl-aminopeptidase membranaire
@@ -1179,8 +2307,47 @@
 EC 3.4.11.22 : aminopeptidase I
 EC 3.4.11.23 : aminopeptidase pepB
 EC 3.4.11.24 : aminopeptidase S
-EC 3.4.12
-Sous-groupe aujourd'hui disparu. La liste suivante donne la correspondance entre les anciens numéros et les nouveaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>EC 3.4.12</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-groupe aujourd'hui disparu. La liste suivante donne la correspondance entre les anciens numéros et les nouveaux.
 Liste des enzymes du groupe EC3.4.12
 EC 3.4.12.1 → EC 3.4.16.1
 EC 3.4.12.2 → EC 3.4.17.1
@@ -1195,7 +2362,47 @@
 EC 3.4.12.11 → EC 3.4.17.6
 EC 3.4.12.12 → EC 3.4.16.1
 EC 3.4.12.13 : supprimée
-EC 3.4.13 : Dipeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>EC 3.4.13 : Dipeptidases</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.13
 EC 3.4.13.1 → EC 3.4.13.18
 EC 3.4.13.2 → EC 3.4.13.18
@@ -1219,7 +2426,47 @@
 EC 3.4.13.20 : β-Ala-His-dipeptidase
 EC 3.4.13.21 : dipeptidase E
 EC 3.4.13.22 : D-Ala-D-Ala dipeptidase
-EC 3.4.14 : Dipeptidyl-peptidases et tripeptidyl-peptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>EC 3.4.14 : Dipeptidyl-peptidases et tripeptidyl-peptidases</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.14
 EC 3.4.14.1 : dipeptidyl-peptidase I
 EC 3.4.14.2 : dipeptidyl-peptidase II
@@ -1233,8 +2480,48 @@
 EC 3.4.14.10 : tripeptidyl-peptidase II
 EC 3.4.14.11 : Xaa-Pro-dipeptidyl-peptidase
 EC 3.4.14.12 : prolyltripeptidyl-aminopeptidase
-EC 3.4.14.12 : γ-D-glutamyl-L-lysine dipeptidyl-peptidase [2].
-EC 3.4.15 : Peptidyl-dipeptidases
+EC 3.4.14.12 : γ-D-glutamyl-L-lysine dipeptidyl-peptidase .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>EC 3.4.15 : Peptidyl-dipeptidases</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.15
 EC 3.4.15.1 : peptidyl-dipeptidase A
 EC 3.4.15.2 → EC 3.4.19.2
@@ -1242,7 +2529,47 @@
 EC 3.4.15.4 : peptidyl-dipeptidase B
 EC 3.4.15.5 : peptidyl-dipeptidase Dcp
 EC 3.4.15.6 : cyanophycinase
-EC 3.4.16 : Carboxypeptidases de type sérine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>EC 3.4.16 : Carboxypeptidases de type sérine</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.16
 EC 3.4.16.1 : supprimée (incluse dans EC 3.4.16.5 et EC 3.4.16.6)
 EC 3.4.16.2 : Pro-Xaa-carboxypeptidase lysosomale
@@ -1250,7 +2577,47 @@
 EC 3.4.16.4 : D-Ala-D-Ala carboxypeptidase de type sérine
 EC 3.4.16.5 : carboxypeptidase C
 EC 3.4.16.6 : carboxypeptidase D
-EC 3.4.17 : Métallocarboxypeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>EC 3.4.17 : Métallocarboxypeptidases</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.17
 EC 3.4.17.1 : carboxypeptidase A
 EC 3.4.17.2 : carboxypeptidase B
@@ -1275,10 +2642,90 @@
 EC 3.4.17.21 : glutamate-carboxypeptidase II
 EC 3.4.17.22 : métallocarboxypeptidase D
 EC 3.4.17.23 : angiotensine-enzyme de conversion 2
-EC 3.4.18 : Carboxypeptidases de type cystéine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>EC 3.4.18 : Carboxypeptidases de type cystéine</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.18
 EC 3.4.18.1 : cathepsine X
-EC 3.4.19 : Oméga-peptidases (enzymes coupant au niveau du dernier acide aminé d'une chaîne peptidique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>EC 3.4.19 : Oméga-peptidases (enzymes coupant au niveau du dernier acide aminé d'une chaîne peptidique)</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.19
 EC 3.4.19.1 : acylaminoacyl-peptidase
 EC 3.4.19.2 : peptidyl-glycinamidase
@@ -1292,7 +2739,47 @@
 EC 3.4.19.10 → EC 3.5.1.28
 EC 3.4.19.11 : γ-D-glutamyl-méso-diaminopimélate-peptidase I
 EC 3.4.19.12 : ubiquitinyl-hydrolase 1
-EC 3.4.21 : Sérine-endopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>EC 3.4.21 : Sérine-endopeptidases</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.21
 EC 3.4.21.1 : chymotrypsine
 EC 3.4.21.2 : chymotrypsine C
@@ -1312,35 +2799,1691 @@
 EC 3.4.21.16 : supprimée
 EC 3.4.21.17 : supprimée
 EC 3.4.21.18 : supprimée
-EC 3.4.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hydrolase</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+EC 3.4.21.19 : glutamyl-endopeptidase
+EC 3.4.21.20 : cathepsine G
+EC 3.4.21.21 : facteur de coagulation VIIa
+EC 3.4.21.22 : facteur de coagulation IXa
+EC 3.4.21.23 : supprimée
+EC 3.4.21.24 : supprimée
+EC 3.4.21.25 : cucumisine
+EC 3.4.21.26 : prolyl-oligopeptidase
+EC 3.4.21.27 : facteur de coagulation XIa
+EC 3.4.21.28 : supprimée (incluse dans EC 3.4.21.74)
+EC 3.4.21.29 : supprimée (incluse dans EC 3.4.21.74)
+EC 3.4.21.30 : supprimée (incluse dans EC 3.4.21.74)
+EC 3.4.21.31 → EC 3.4.21.68 et EC 3.4.21.73
+EC 3.4.21.32 : brachyurine
+EC 3.4.21.33 : supprimée
+EC 3.4.21.34 : kallikréine plasmatique
+EC 3.4.21.35 : kallikréine tissulaire
+EC 3.4.21.36 : élastase pancréatique
+EC 3.4.21.37 : élastase leucocytaire
+EC 3.4.21.38 : facteur de coagulation XIIa
+EC 3.4.21.39 : chymase
+EC 3.4.21.40 : supprimée
+EC 3.4.21.41 : sous-composant C du complément
+EC 3.4.21.42 : sous-composant C du complément
+EC 3.4.21.43 : classical-complement-pathway C3/C5 convertase
+EC 3.4.21.44 : supprimée (incluse dans EC 3.4.21.43)
+EC 3.4.21.45 : facteur I du complément
+EC 3.4.21.46 : facteur D du complément
+EC 3.4.21.47 : alternative-complement-pathway C3/C5 convertase
+EC 3.4.21.48 : cérévisine
+EC 3.4.21.49 : hypodermine C
+EC 3.4.21.50 : lysyl-endopeptidase
+EC 3.4.21.51 : supprimée
+EC 3.4.21.52 : supprimée
+EC 3.4.21.53 : endopeptidase La
+EC 3.4.21.54 : γ-rénine
+EC 3.4.21.55 : vénombine AB
+EC 3.4.21.56 : supprimée
+EC 3.4.21.57 : leucyl-endopeptidase
+EC 3.4.21.58 : supprimée
+EC 3.4.21.59 : tryptase
+EC 3.4.21.60 : scutélarine
+EC 3.4.21.61 : kexine
+EC 3.4.21.62 : subtilisine
+EC 3.4.21.63 : oryzine
+EC 3.4.21.64 : peptidase K
+EC 3.4.21.65 : thermomycoline
+EC 3.4.21.66 : thermitase
+EC 3.4.21.67 : endopeptidase So
+EC 3.4.21.68 : activateur du t-plasminogène
+EC 3.4.21.69 : protéine C (activée)
+EC 3.4.21.70 : endopeptidase E pancréatique
+EC 3.4.21.71 : élastase II pancréatique
+EC 3.4.21.72 : sérine-endopeptidase IgA-spécifique
+EC 3.4.21.73 : activateur du u-plasminogène
+EC 3.4.21.74 : vénombine A
+EC 3.4.21.75 : furine
+EC 3.4.21.76 : myéloblastine
+EC 3.4.21.77 : séménogélase
+EC 3.4.21.78 : granzyme A
+EC 3.4.21.79 : granzyme B
+EC 3.4.21.80 : streptogrisine A
+EC 3.4.21.81 : streptogrisine B
+EC 3.4.21.82 : glutamyl-endopeptidase II
+EC 3.4.21.83 : oligopeptidase B
+EC 3.4.21.84 : limulus clotting factor
+EC 3.4.21.85 : limulus clotting factor
+EC 3.4.21.86 : limulus clotting enzyme
+EC 3.4.21.87 → EC 3.4.23.49
+EC 3.4.21.88 : répresseur LexA
+EC 3.4.21.89 : peptidase I signal
+EC 3.4.21.90 : togavirine
+EC 3.4.21.91 : flavivirine
+EC 3.4.21.92 : endopeptidase Clp
+EC 3.4.21.93 : proprotéine-convertase 1
+EC 3.4.21.94 : proprotéine-convertase 2
+EC 3.4.21.95 : activateur du facteur V de venin de serpent
+EC 3.4.21.96 : lactocépine
+EC 3.4.21.97 : assembline
+EC 3.4.21.98 : hépacivirine
+EC 3.4.21.99 : spermosine
+EC 3.4.21.100 : sédolisine
+EC 3.4.21.101 : xanthomonalisine
+EC 3.4.21.102 : peptidase agissant sur le C-terminal
+EC 3.4.21.103 : physarolisine
+EC 3.4.21.104 : mannan-binding lectin-associated serine protease-2
+EC 3.4.21.105 : rhomboïde-protéase
+EC 3.4.21.106 : hepsine
+EC 3.4.21.107 : peptidase Do
+EC 3.4.21.108 : HtrA2 peptidase
+EC 3.4.21.109 : matriptase
+EC 3.4.21.110 : C5a peptidase
+EC 3.4.21.111 : aqualysine 1
+EC 3.4.21.112 : site-1 protéase
+EC 3.4.21.113 : pestivirus NS3 polyprotéine peptidase
+EC 3.4.21.114 : artérivirus chevalin sérine-peptidase
+EC 3.4.21.115 : peptidase du birnavirus Vp4 de la nécrose pancréatique infectieuse
+EC 3.4.21.116 : SpoIVB peptidase
+EC 3.4.21.117 : enzyme chymotryptique du stratum corneum
+EC 3.4.21.118 : kallikréine 8
+EC 3.4.21.119 : kallikréine 13
+EC 3.4.21.120 : oviductine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>EC 3.4.22 : Cystéine-endopeptidases</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.4.22
+EC 3.4.22.1 : cathepsine B
+EC 3.4.22.2 : papaïne
+EC 3.4.22.3 : ficaïne
+EC 3.4.22.4 → EC 3.4.22.32 et EC 3.4.22.33
+EC 3.4.22.5 → EC 3.4.22.33
+EC 3.4.22.6 : chymopapaïne
+EC 3.4.22.7 : asclépaïne
+EC 3.4.22.8 : clostripaïne
+EC 3.4.22.9 → EC 3.4.21.48
+EC 3.4.22.10 : streptopaïne
+EC 3.4.22.11 → EC 3.4.24.56
+EC 3.4.22.12 → EC 3.4.19.9
+EC 3.4.22.13 : supprimée
+EC 3.4.22.14 : actinidaïne
+EC 3.4.22.15 : cathepsine L
+EC 3.4.22.16 : cathepsine H
+EC 3.4.22.17 → EC 3.4.22.52 et EC 3.4.22.53
+EC 3.4.22.18 : supprimée (incluse dans EC 3.4.21.26)
+EC 3.4.22.19 : supprimée (incluse dans EC 3.4.24.15)
+EC 3.4.22.20 : supprimée
+EC 3.4.22.21 : supprimée (incluse dans EC 3.4.99.46)
+EC 3.4.22.22 → EC 3.4.24.37
+EC 3.4.22.23 : supprimée (incluse dans EC 3.4.21.61)
+EC 3.4.22.24 : cathepsine T
+EC 3.4.22.25 : glycyl-endopeptidase
+EC 3.4.22.26 : cancer procoagulant
+EC 3.4.22.27 : cathepsine S
+EC 3.4.22.28 : picornaïne 3C
+EC 3.4.22.29 : picornaïne 2A
+EC 3.4.22.30 : caricaïne
+EC 3.4.22.31 : ananaïne
+EC 3.4.22.32 : bromélaïne (de la tige d'ananas)
+EC 3.4.22.33 : bromélaïne (du fruit)
+EC 3.4.22.34 : légumaïne
+EC 3.4.22.35 : histolysaïne
+EC 3.4.22.36 : caspase 1
+EC 3.4.22.37 : gingipaïne R
+EC 3.4.22.38 : cathepsine K
+EC 3.4.22.39 : adénaïne
+EC 3.4.22.40 : bléomycine-hydrolase
+EC 3.4.22.41 : cathepsine F
+EC 3.4.22.42 : cathepsine O
+EC 3.4.22.43 : cathepsine V
+EC 3.4.22.44 : nuclear-inclusion-a endopeptidase
+EC 3.4.22.45 : helper-component proteinase
+EC 3.4.22.46 : L-peptidase
+EC 3.4.22.47 : gingipaïne K
+EC 3.4.22.48 : staphopaïne
+EC 3.4.22.49 : séparase
+EC 3.4.22.50 : V-cath endopeptidase
+EC 3.4.22.51 : cruzipaïne
+EC 3.4.22.52 : calpaïne-1
+EC 3.4.22.53 : calpaïne-2
+EC 3.4.22.54 : calpaïne-3
+EC 3.4.22.55 : caspase 2
+EC 3.4.22.56 : caspase 3
+EC 3.4.22.57 : caspase 4
+EC 3.4.22.58 : caspase 5
+EC 3.4.22.59 : caspase 6
+EC 3.4.22.60 : caspase 7
+EC 3.4.22.61 : caspase 8
+EC 3.4.22.62 : caspase 9
+EC 3.4.22.63 : caspase 10
+EC 3.4.22.64 : caspase 11
+EC 3.4.22.65 : peptidase 1 (de mite)
+EC 3.4.22.66 : calicivirine
+EC 3.4.22.67 : zingipaïne
+EC 3.4.22.68 : Ulp1 peptidase
+EC 3.4.22.69 : protéinase principale du coronavirus SARS
+EC 3.4.22.70 : sortase A
+EC 3.4.22.71 : sortase B
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>EC 3.4.23 : Aspartate-endopeptidases</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.4.23
+EC 3.4.23.1 : pepsine A
+EC 3.4.23.2 : pepsine B
+EC 3.4.23.3 : gastricsine
+EC 3.4.23.4 : chymosine
+EC 3.4.23.5 : cathepsine D
+EC 3.4.23.6 → EC 3.4.23.18 à EC 3.4.23.28, et EC 3.4.23.30
+EC 3.4.23.7 → EC 3.4.24.20
+EC 3.4.23.8 → EC 3.4.24.25
+EC 3.4.23.9 → EC 3.4.24.21
+EC 3.4.23.10 → EC 3.4.24.22
+EC 3.4.23.11 : supprimée
+EC 3.4.23.12 : népenthésine
+EC 3.4.23.13 : supprimée
+EC 3.4.23.14 : supprimée
+EC 3.4.23.15 : rénine
+EC 3.4.23.16 : rétropepsine de HIV-1
+EC 3.4.23.17 : enzyme de conversion de la pro-opiomélanocortine
+EC 3.4.23.18 : aspergillopepsine I
+EC 3.4.23.19 : aspergillopepsine II
+EC 3.4.23.20 : pénicillopepsine
+EC 3.4.23.21 : rhizopuspepsine
+EC 3.4.23.22 : endothiapepsine
+EC 3.4.23.23 : mucorpepsine
+EC 3.4.23.24 : candidapepsine
+EC 3.4.23.25 : saccharopepsine
+EC 3.4.23.26 : rhodotorulapepsine
+EC 3.4.23.27 → EC 3.4.21.103
+EC 3.4.23.28 : acrocylindropepsine
+EC 3.4.23.29 : polyporopepsine
+EC 3.4.23.30 : pycnoporopepsine
+EC 3.4.23.31 : scytalidopepsine A
+EC 3.4.23.32 : scytalidopepsine B
+EC 3.4.23.33 → EC 3.4.21.101
+EC 3.4.23.34 : cathepsine E
+EC 3.4.23.35 : barrierpepsine
+EC 3.4.23.36 : peptidase II signal
+EC 3.4.23.37 → EC 3.4.21.100
+EC 3.4.23.38 : plasmepsine I
+EC 3.4.23.39 : plasmepsine II
+EC 3.4.23.40 : phytepsine
+EC 3.4.23.41 : yapsine 1
+EC 3.4.23.42 : thermopsine
+EC 3.4.23.43 : prépiline-peptidase
+EC 3.4.23.44 : endopeptidase de nodavirus
+EC 3.4.23.45 : mémapsine 1
+EC 3.4.23.46 : mémapsine 2
+EC 3.4.23.47 : rétropepsine de HIV-2
+EC 3.4.23.48 : activateur Pla du plasminogène
+EC 3.4.23.49 : omptine
+EC 3.4.23.50 : endopeptidase du rétrovirus humain endogène K
+EC 3.4.23.51 : HycI peptidase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>EC 3.4.24 : Métalloendopeptidases</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.4.24
+EC 3.4.24.1 : atrolysine A
+EC 3.4.24.2 : supprimée
+EC 3.4.24.3 : collagénase microbienne
+EC 3.4.24.4 → EC 3.4.24.25 à EC 3.4.24.32, EC 3.4.24.39 et EC 3.4.24.40
+EC 3.4.24.5 → EC 3.4.22.17 et EC 3.4.25.1
+EC 3.4.24.6 : leucolysine
+EC 3.4.24.7 : collagénase interstitielle
+EC 3.4.24.8 : supprimée (incluse dans EC 3.4.24.3)
+EC 3.4.24.9 : supprimée
+EC 3.4.24.10 : supprimée
+EC 3.4.24.11 : néprilysine
+EC 3.4.24.12 : envélysine
+EC 3.4.24.13 : métalloendopeptidase IgA-spécifique
+EC 3.4.24.14 : procollagène N-endopeptidase
+EC 3.4.24.15 : thimet oligopeptidase
+EC 3.4.24.16 : neurolysine
+EC 3.4.24.17 : stromélysine 1
+EC 3.4.24.18 : méprine A
+EC 3.4.24.19 : procollagène C-endopeptidase
+EC 3.4.24.20 : peptidyl-Lys métalloendopeptidase
+EC 3.4.24.21 : astacine
+EC 3.4.24.22 : stromélysine 2
+EC 3.4.24.23 : matrilysine
+EC 3.4.24.24 : gélatinase A
+EC 3.4.24.25 : vibriolysine
+EC 3.4.24.26 : pseudolysine
+EC 3.4.24.27 : thermolysine
+EC 3.4.24.28 : bacillolysine
+EC 3.4.24.29 : auréolysine
+EC 3.4.24.30 : coccolysine
+EC 3.4.24.31 : mycolysine
+EC 3.4.24.32 : métalloendopeptidase β-lytique
+EC 3.4.24.33 : peptidyl-Asp-métalloendopeptidase
+EC 3.4.24.34 : collagénase neutrophile
+EC 3.4.24.35 : gélatinase B
+EC 3.4.24.36 : leishmanolysine
+EC 3.4.24.37 : saccharolysine
+EC 3.4.24.38 : gamétolysine
+EC 3.4.24.39 : deutérolysine
+EC 3.4.24.40 : serralysine
+EC 3.4.24.41 : atrolysine B
+EC 3.4.24.42 : atrolysine C
+EC 3.4.24.43 : atroxase
+EC 3.4.24.44 : atrolysine E
+EC 3.4.24.45 : atrolysine F
+EC 3.4.24.46 : adamalysine
+EC 3.4.24.47 : horrilysine
+EC 3.4.24.48 : ruberlysine
+EC 3.4.24.49 : bothropasine
+EC 3.4.24.50 : bothrolysine
+EC 3.4.24.51 : ophiolysine
+EC 3.4.24.52 : trimérélysine I
+EC 3.4.24.53 : trimérélysine II
+EC 3.4.24.54 : mucrolysine
+EC 3.4.24.55 : pitrilysine
+EC 3.4.24.56 : insulysine
+EC 3.4.24.57 : O-sialoglycoprotéine-endopeptidase
+EC 3.4.24.58 : russellysine
+EC 3.4.24.59 : peptidase mitochondriale intermédiaire
+EC 3.4.24.60 : dactylysine
+EC 3.4.24.61 : nardilysine
+EC 3.4.24.62 : magnolysine
+EC 3.4.24.63 : méprine B
+EC 3.4.24.64 : peptidase à action mitochonfriale
+EC 3.4.24.65 : élastase de macrophage
+EC 3.4.24.66 : choriolysine L
+EC 3.4.24.67 : choriolysine H
+EC 3.4.24.68 : tentoxilysine
+EC 3.4.24.69 : bontoxilysine
+EC 3.4.24.70 : oligopeptidase A
+EC 3.4.24.71 : endothelin-converting enzyme
+EC 3.4.24.72 : fibrolase
+EC 3.4.24.73 : jararhagine
+EC 3.4.24.74 : fragilysine
+EC 3.4.24.75 : lysostaphine
+EC 3.4.24.76 : flavastacine
+EC 3.4.24.77 : snapalysine
+EC 3.4.24.78 : gpr endopeptidase
+EC 3.4.24.79 : pappalysine-1
+EC 3.4.24.80 : membrane-type matrix metalloproteinase-1
+EC 3.4.24.81 : ADAM10 endopeptidase
+EC 3.4.24.82 : ADAMTS-4 endopeptidase
+EC 3.4.24.83 : endopeptidase du facteur létal de l'anthrax
+EC 3.4.24.84 : Ste24 endopeptidase
+EC 3.4.24.85 : S2P endopeptidase
+EC 3.4.24.86 : ADAM 17 endopeptidase
+EC 3.4.24.87 : ADAMTS13 endopeptidase
+EC 3.4.24.88 : desampylase
+EC 3.4.24.89 : Pro-Pro endopeptidase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>EC 3.4.25 : Thréonine-endopeptidases</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.4.25
+EC 3.4.25.1 : complexe protéasome-endopeptidase
+EC 3.4.25.2 : HslU—HslV peptidase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Groupe EC3.4 (peptidases)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>EC 3.4.99 : Endopeptidases dont le mécanisme d'action est inconnu</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce sous-groupe sont placées les enzymes dont on ne connaît pas encore le mécanisme d'action. Dès que celui-ci est connu, l'enzyme est reclassée. La liste ci-après donne la nouvelle nomenclature donnée aux enzymes en attente. Actuellement, cette liste ne contient aucune enzyme en attente.
+Liste des enzymes du groupe EC3.4.99
+EC 3.4.99.1 → EC 3.4.23.28
+EC 3.4.99.2 : supprimée
+EC 3.4.99.3 : supprimée
+EC 3.4.99.4 → EC 3.4.23.12
+EC 3.4.99.5 → EC 3.4.24.3
+EC 3.4.99.6 → EC 3.4.24.21
+EC 3.4.99.7 : supprimée
+EC 3.4.99.8 : supprimée
+EC 3.4.99.9 : supprimée
+EC 3.4.99.10 → EC 3.4.24.56
+EC 3.4.99.11 : supprimée
+EC 3.4.99.12 : supprimée
+EC 3.4.99.13 → EC 3.4.24.32
+EC 3.4.99.14 : supprimée
+EC 3.4.99.15 : supprimée
+EC 3.4.99.16 : supprimée
+EC 3.4.99.17 : supprimée
+EC 3.4.99.18 : supprimée
+EC 3.4.99.19 → EC 3.4.23.15
+EC 3.4.99.20 : supprimée
+EC 3.4.99.21 : supprimée
+EC 3.4.99.22 → EC 3.4.24.29
+EC 3.4.99.23 : supprimée
+EC 3.4.99.24 : supprimée
+EC 3.4.99.25 : supprimée (incluse dans EC 3.4.23.21)
+EC 3.4.99.26 → EC 3.4.24.73 et EC 3.4.21.68
+EC 3.4.99.27 : supprimée
+EC 3.4.99.28 → EC 3.4.21.60
+EC 3.4.99.29 : supprimée
+EC 3.4.99.30 : supprimée (incluse dans EC 3.4.24.20)
+EC 3.4.99.31 : supprimée (incluse dans EC 3.4.24.15)
+EC 3.4.99.32 → EC 3.4.24.20
+EC 3.4.99.33 : supprimée
+EC 3.4.99.34 : supprimée
+EC 3.4.99.35 → EC 3.4.23.36
+EC 3.4.99.36 → EC 3.4.21.89
+EC 3.4.99.37 : supprimée
+EC 3.4.99.38 → EC 3.4.23.17
+EC 3.4.99.39 : supprimée
+EC 3.4.99.40 : supprimée
+EC 3.4.99.41 → EC 3.4.24.64
+EC 3.4.99.42 : supprimée
+EC 3.4.99.43 → EC 3.4.23.42
+EC 3.4.99.44 → EC 3.4.24.55
+EC 3.4.99.45 → EC 3.4.24.56
+EC 3.4.99.46 → EC 3.4.25.1
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Groupe EC3.5 (enzymes agissant sur les liaisons carbone-azote)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>EC 3.5.1 : Enzymes spécifiques des amides linéaires (liaison C-N linéaire)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.5.1
+EC 3.5.1.1 : asparaginase
+EC 3.5.1.2 : glutaminase
+EC 3.5.1.3 : ω-amidase
+EC 3.5.1.4 : amidase
+EC 3.5.1.5 : uréase
+EC 3.5.1.6 : β-uréidopropionase
+EC 3.5.1.7 : ureidosuccinase
+EC 3.5.1.8 : formylaspartate-déformylase
+EC 3.5.1.9 : arylformamidase
+EC 3.5.1.10 : formyltétrahydrofolate-déformylase
+EC 3.5.1.11 : pénicilline-amidase
+EC 3.5.1.12 : biotinidase
+EC 3.5.1.13 : aryl-acylamidase
+EC 3.5.1.14 : aminoacylase
+EC 3.5.1.15 : aspartoacylase
+EC 3.5.1.16 : acétylornithine-déacétylase
+EC 3.5.1.17 : acyl-lysine-déacylase
+EC 3.5.1.18 : succinyl-diaminopimélate-désuccinylase
+EC 3.5.1.19 : nicotinamidase
+EC 3.5.1.20 : citrullinase
+EC 3.5.1.21 : N-acétyl-β-alanine-déacétylase
+EC 3.5.1.22 : pantothénase
+EC 3.5.1.23 : céramidase
+EC 3.5.1.24 : choloylglycine-hydrolase
+EC 3.5.1.25 : N-acétylglucosamine-6-phosphate-déacétylase
+EC 3.5.1.26 : N4-(β-N-acétylglucosaminyl)-L-asparaginase
+EC 3.5.1.27 : N-formylméthionylaminoacyl-ARNt-déformylase
+EC 3.5.1.28 : N-acétylmuramoyl-L-alanine-amidase
+EC 3.5.1.29 : 2-(acétamidométhylène)succinate-hydrolase
+EC 3.5.1.30 : 5-aminopentanamidase
+EC 3.5.1.31 : formylméthionine-déformylase
+EC 3.5.1.32 : hippurate-hydrolase
+EC 3.5.1.33 : N-acétylglucosamine-déacétylase
+EC 3.5.1.34 : supprimée (transférée vers EC 3.4.13.5)
+EC 3.5.1.35 : D-glutaminase
+EC 3.5.1.36 : N-méthyl-2-oxoglutaramate-hydrolase
+EC 3.5.1.37 : supprimée (transférée vers EC 3.5.1.26)
+EC 3.5.1.38 : glutamine-asparaginase
+EC 3.5.1.39 : alkylamidase
+EC 3.5.1.40 : acylagmatine-amidase
+EC 3.5.1.41 : chitine-déacétylase
+EC 3.5.1.42 : nicotinamide-nucléotide-amidase
+EC 3.5.1.43 : peptidyl-glutaminase
+EC 3.5.1.44 : protéine-glutamine-glutaminase
+EC 3.5.1.45 : transférée vers EC 6.3.4.6
+EC 3.5.1.46 : 6-aminohexanoate-dimère-hydrolase
+EC 3.5.1.47 : N-acétyldiaminopimélate-déacétylase
+EC 3.5.1.48 : acétylspermidine-déacétylase
+EC 3.5.1.49 : formamidase
+EC 3.5.1.50 : pentanamidase
+EC 3.5.1.51 : 4-acétamidobutyryl-CoA-déacétylase
+EC 3.5.1.52 : peptide-N4-(N-acétyl-β-glucosaminyl)asparagine-amidase
+EC 3.5.1.53 : N-carbamoylputrescine-amidase
+EC 3.5.1.54 : allophanate-hydrolase
+EC 3.5.1.55 : acide gras à longue chaîne-glutamate-déacylase
+EC 3.5.1.56 : N,N-diméthylformamidase
+EC 3.5.1.57 : tryptophanamidase
+EC 3.5.1.58 : N-benzyloxycarbonylglycine-hydrolase
+EC 3.5.1.59 : N-carbamoylsarcosine-amidase
+EC 3.5.1.60 : N-acyléthanolamine à longue chaîne-déacylase
+EC 3.5.1.61 : mimosinase
+EC 3.5.1.62 : acétylputrescine-déacétylase
+EC 3.5.1.63 : 4-acétamidobutyrate-déacétylase
+EC 3.5.1.64 : Nα-benzyloxycarbonylleucine-hydrolase
+EC 3.5.1.65 : théanine-hydrolase
+EC 3.5.1.66 : 2-(hydroxyméthyl)-3-(acétamidométhylène)succinate-hydrolase
+EC 3.5.1.67 : 4-méthylèneglutaminase
+EC 3.5.1.68 : N-formylglutamate-déformylase
+EC 3.5.1.69 : glycosphingolipide-déacylase
+EC 3.5.1.70 : aculéacine A-déacylase
+EC 3.5.1.71 : N-féruloylglycine-déacylase
+EC 3.5.1.72 : D-benzoylarginine-4-nitroanilide-amidase
+EC 3.5.1.73 : carnitinamidase
+EC 3.5.1.74 : chénodésoxycholoyltaurine-hydrolase
+EC 3.5.1.75 : uréthanase
+EC 3.5.1.76 : arylalkyl-acylamidase
+EC 3.5.1.77 : N-carbamoyl-D-aminoacide-hydrolase
+EC 3.5.1.78 : glutathionylspermidine-amidase
+EC 3.5.1.79 : phthalyl-amidase
+EC 3.5.1.80 : supprimée (transférée vers EC 3.5.1.25)
+EC 3.5.1.81 : N-acyl-D-aminoacide-déacylase
+EC 3.5.1.82 : N-acyl-D-glutamate-déacylase
+EC 3.5.1.83 : N-acyl-D-aspartate-déacylase
+EC 3.5.1.84 : biuret-amidohydrolase
+EC 3.5.1.85 : (S)-N-acétyl-1-phényléthylamine-hydrolase
+EC 3.5.1.86 : mandélamide-amidase
+EC 3.5.1.87 : N-carbamoyl-L-aminoacide-hydrolase
+EC 3.5.1.88 : peptide-déformylase
+EC 3.5.1.89 : N-acétylglucosaminylphosphatidylinositol-déacétylase
+EC 3.5.1.90 : adénosylcobinamide-hydrolase
+EC 3.5.1.91 : formamide N-substituée-déformylase
+EC 3.5.1.92 : pantéthéine-hydrolase
+EC 3.5.1.93 : acide glutaryl-7-aminocéphalosporanique-acylase
+EC 3.5.1.94 : γ-glutamyl-γ-aminobutyrate-hydrolase
+EC 3.5.1.95 : N-malonylurée-hydrolase
+EC 3.5.1.96 : succinylglutamate-désuccinylase
+EC 3.5.1.97 : acyl-homosérine-lactone-acylase
+EC 3.5.1.98 : histone-déacétylase
+EC 3.5.1.99 : amide d'acide gras-hydrolase
+EC 3.5.1.100 : (R)-amidase
+EC 3.5.1.101 : L-prolinamide-hydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Groupe EC3.5 (enzymes agissant sur les liaisons carbone-azote)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>EC 3.5.2 : Enzymes spécifiques des amides cycliques (liaison C-N cyclique)</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.5.2
+EC 3.5.2.1 : barbiturase
+EC 3.5.2.2 : dihydropyrimidinase
+EC 3.5.2.3 : dihydroorotase
+EC 3.5.2.4 : carboxyméthylhydantoïnase
+EC 3.5.2.5 : allantoïnase
+EC 3.5.2.6 : β-lactamase
+EC 3.5.2.7 : imidazolonepropionase
+EC 3.5.2.8 : supprimée (incluse dans EC 3.5.2.6)
+EC 3.5.2.9 : 5-oxoprolinase (ATP-hydrolysante)
+EC 3.5.2.10 : créatininase
+EC 3.5.2.11 : L-lysine-lactamase
+EC 3.5.2.12 : 6-aminohexanoate-dimère cyclique-hydrolase
+EC 3.5.2.13 : 2,5-dioxopipérazine-hydrolase
+EC 3.5.2.14 : N-méthylhydantoïnase (ATP-hydrolysante)
+EC 3.5.2.15 : acide cyanurique-amidohydrolase
+EC 3.5.2.16 : maléimide-hydrolase
+EC 3.5.2.17 : hydroxyisourate-hydrolase
+EC 3.5.2.18 : énamidase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Groupe EC3.5 (enzymes agissant sur les liaisons carbone-azote)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>EC 3.5.3 : Déiminases (enzymes spécifiques des amidines linéaires) (liaison C=N linéaire)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.5.3
+EC 3.5.3.1 : arginase
+EC 3.5.3.2 : guanidinoacétase
+EC 3.5.3.3 : créatinase
+EC 3.5.3.4 : allantoïcase
+EC 3.5.3.5 : formiminoaspartate-déiminase
+EC 3.5.3.6 : arginine-déiminase
+EC 3.5.3.7 : guanidinobutyrase
+EC 3.5.3.8 : formimidoylglutamase
+EC 3.5.3.9 : allantoate-déiminase
+EC 3.5.3.10 : D-arginase
+EC 3.5.3.11 : agmatinase
+EC 3.5.3.12 : agmatine-déiminase
+EC 3.5.3.13 : formiminoglutamate-déiminase
+EC 3.5.3.14 : amidinoaspartase
+EC 3.5.3.15 : protéine-arginine-déiminase
+EC 3.5.3.16 : méthylguanidinase
+EC 3.5.3.17 : guanidinopropionase
+EC 3.5.3.18 : diméthylargininase
+EC 3.5.3.19 : uréidoglycolate-hydrolase
+EC 3.5.3.20 : diguanidinobutanase
+EC 3.5.3.21 : méthylènediurée-désaminase
+EC 3.5.3.22 : proclavaminate-amidinohydrolase
+EC 3.5.3.23 : N-succinylarginine-dihydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Groupe EC3.5 (enzymes agissant sur les liaisons carbone-azote)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>EC 3.5.4 : Enzymes spécifiques des amidines cycliques (liaison C=N cyclique)</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.5.4
+EC 3.5.4.1 : cytosine-désaminase
+EC 3.5.4.2 : adénine-désaminase
+EC 3.5.4.3 : guanine-désaminase
+EC 3.5.4.4 : adénosine désaminase
+EC 3.5.4.5 : cytidine-désaminase
+EC 3.5.4.6 : AMP-désaminase
+EC 3.5.4.7 : ADP-désaminase
+EC 3.5.4.8 : aminoimidazolase
+EC 3.5.4.9 : méthényltétrahydrofolate-cyclohydrolase
+EC 3.5.4.10 : IMP-cyclohydrolase
+EC 3.5.4.11 : ptérine-désaminase
+EC 3.5.4.12 : dCMP-désaminase
+EC 3.5.4.13 : dCTP-désaminase
+EC 3.5.4.14 : désoxycytidine-désaminase
+EC 3.5.4.15 : guanosine-désaminase
+EC 3.5.4.16 : GTP-cyclohydrolase I
+EC 3.5.4.17 : adénosine-phosphate-désaminase
+EC 3.5.4.18 : ATP-désaminase
+EC 3.5.4.19 : phosphoribosyl-AMP-cyclohydrolase
+EC 3.5.4.20 : pyrithiamine-désaminase
+EC 3.5.4.21 : créatinine-désaminase
+EC 3.5.4.22 : 1-pyrroline-4-hydroxy-2-carboxylate-désaminase
+EC 3.5.4.23 : blasticidine S-désaminase
+EC 3.5.4.24 : sépiaptérine-désaminase
+EC 3.5.4.25 : GTP-cyclohydrolase II
+EC 3.5.4.26 : diaminohydroxyphosphoribosylaminopyrimidine-désaminase
+EC 3.5.4.27 : méthényltétrahydrométhanoptérine-cyclohydrolase
+EC 3.5.4.28 : S-adénosylhomocystéine-désaminase
+EC 3.5.4.29 : GTP-cyclohydrolase IIa
+EC 3.5.4.30 : dCTP-désaminase (formatrice de dUMP)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Groupe EC3.5 (enzymes agissant sur les liaisons carbone-azote)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>EC 3.5.5 : Nitrilases (enzymes spécifiques des nitriles) (liaison C≡N)</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.5.5
+EC 3.5.5.1 : nitrilase
+EC 3.5.5.2 : ricinine-nitrilase
+EC 3.5.5.3 : transférée vers EC 4.3.99.1
+EC 3.5.5.4 : cyanoalanine-nitrilase
+EC 3.5.5.5 : arylacétonitrilase
+EC 3.5.5.6 : bromoxynil-nitrilase
+EC 3.5.5.7 : nitrilase aliphatique
+EC 3.5.5.8 : thiocyanate-hydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Groupe EC3.5 (enzymes agissant sur les liaisons carbone-azote)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>EC 3.5.99 : Autres enzymes</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.5.99
+EC 3.5.99.1 : riboflavinase
+EC 3.5.99.2 : thiaminase
+EC 3.5.99.3 : hydroxydéchloroatrazine-éthylaminohydrolase
+EC 3.5.99.4 : N-isopropylammélide-isopropylaminohydrolase
+EC 3.5.99.5 : 2-aminomuconate-désaminase
+EC 3.5.99.6 : glucosamine-6-phosphate-désaminase
+EC 3.5.99.7 : 1-aminocyclopropane-1-carboxylate-désaminase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Groupe EC3.6 (enzymes spécifiques des anhydrides d'acides)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>EC 3.6.1 : Polyphosphatases (enzymes spécifiques des anhydrides contenant du phosphore)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.6.1
+EC 3.6.1.1 : diphosphatase inorganique
+EC 3.6.1.2 : trimétaphosphatase
+EC 3.6.1.3 : adénosinetriphosphatase
+EC 3.6.1.4 : supprimée (incluse dans EC 3.6.1.3)
+EC 3.6.1.5 : apyrase
+EC 3.6.1.6 : nucléoside-diphosphatase
+EC 3.6.1.7 : acylphosphatase
+EC 3.6.1.8 : ATP-diphosphatase
+EC 3.6.1.9 : nucléotide-diphosphatase
+EC 3.6.1.10 : endopolyphosphatase
+EC 3.6.1.11 : exopolyphosphatase
+EC 3.6.1.12 : dCTP-diphosphatase
+EC 3.6.1.13 : ADP-ribose-diphosphatase
+EC 3.6.1.14 : adénosine-tétraphosphatase
+EC 3.6.1.15 : nucléoside-triphosphatase
+EC 3.6.1.16 : CDP-glycérol-diphosphatase
+EC 3.6.1.17 : bis(5'-nucléosyl)-tétraphosphatase (asymétrique)
+EC 3.6.1.18 : FAD-diphosphatase
+EC 3.6.1.19 : nucléoside-triphosphate-diphosphatase
+EC 3.6.1.20 : 5'-acylphosphoadénosine-hydrolase
+EC 3.6.1.21 : ADP-ose-diphosphatase
+EC 3.6.1.22 : NAD+-diphosphatase
+EC 3.6.1.23 : dUTP-diphosphatase
+EC 3.6.1.24 : nucléoside-phosphoacylhydrolase
+EC 3.6.1.25 : triphosphatase
+EC 3.6.1.26 : CDP-diacylglycérol-diphosphatase
+EC 3.6.1.27 : undécaprényl-diphosphatase
+EC 3.6.1.28 : thiamine-triphosphatase
+EC 3.6.1.29 : bis(5'-adénosyl)-triphosphatase
+EC 3.6.1.30 : m7G(5')pppN-diphosphatase
+EC 3.6.1.31 : phosphoribosyl-ATP-diphosphatase
+EC 3.6.1.32 : transférée vers EC 3.6.4.1
+EC 3.6.1.33 : transférée vers EC 3.6.4.2
+EC 3.6.1.34 : transférée vers EC 3.6.3.14
+EC 3.6.1.35 : transférée vers EC 3.6.3.6
+EC 3.6.1.36 : transférée vers EC 3.6.3.10
+EC 3.6.1.37 : transférée vers EC 3.6.3.9
+EC 3.6.1.38 : transférée vers EC 3.6.3.8
+EC 3.6.1.39 : thymidine-triphosphatase
+EC 3.6.1.40 : guanosine-5'-triphosphate,3'-diphosphate-diphosphatase
+EC 3.6.1.41 : bis(5'-nucléosyl)-tétraphosphatase (symétrique)
+EC 3.6.1.42 : guanosine-diphosphatase
+EC 3.6.1.43 : dolichyldiphosphatase
+EC 3.6.1.44 : oligosaccharide-diphosphodolichol-diphosphatase
+EC 3.6.1.45 : UDP-ose-diphosphatase
+EC 3.6.1.46 : transférée vers EC 3.6.5.1
+EC 3.6.1.47 : transférée vers EC 3.6.5.2
+EC 3.6.1.48 : transférée vers EC 3.6.5.3
+EC 3.6.1.49 : transférée vers EC 3.6.5.4
+EC 3.6.1.50 : transférée vers EC 3.6.5.5
+EC 3.6.1.51 : transférée vers EC 3.6.5.6
+EC 3.6.1.52 : diphosphoinositol-polyphosphate-diphosphatase
+EC 3.6.1.53 : ADP-ribose/CDP-alcool Mn2+-dépendante-diphosphatase
+EC 3.6.1.68 : geranyl diphosphate phosphohydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Groupe EC3.6 (enzymes spécifiques des anhydrides d'acides)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>EC 3.6.2 : Sulfatases (enzymes spécifiques des anhydrides contenant un groupe sulfonyle)</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.6.2
+EC 3.6.2.1 : adénylylsulfatase
+EC 3.6.2.2 : phosphoadénylylsulfatase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Groupe EC3.6 (enzymes spécifiques des anhydrides d'acides)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>EC 3.6.3 : Anhydrases agissant lors de mouvements transmembranaires</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.6.3
+EC 3.6.3.1 : ATPase-Mg2+
+EC 3.6.3.2 : ATPase-Mg2+ (import)
+EC 3.6.3.3 : ATPase-Cd2+ (export)
+EC 3.6.3.4 : ATPase-Cu2+ (export)
+EC 3.6.3.5 : ATPase-Zn2+ (export)
+EC 3.6.3.6 : ATPase-H+ (export)
+EC 3.6.3.7 : ATPase-Na+ (export)
+EC 3.6.3.8 : ATPase-Ca2+ (transport)
+EC 3.6.3.9 : ATPase-Na+/K+ (échange)
+EC 3.6.3.10 : ATPase-H+/K+ (échange)
+EC 3.6.3.11 : ATPase-Cl− (transport)
+EC 3.6.3.12 : ATPase-K+ (transport)
+EC 3.6.3.13 : supprimée (identique à EC 3.6.3.1)
+EC 3.6.3.14 : H+-transporting two-sector ATPase
+EC 3.6.3.15 : Na+-transporting two-sector ATPase
+EC 3.6.3.16 : ATPase-arsenite (transport)
+EC 3.6.3.17 : ATPase-monosaccharide (transport)
+EC 3.6.3.18 : ATPase-oligosaccharide (transport)
+EC 3.6.3.19 : ATPase-maltose (transport)
+EC 3.6.3.20 : ATPase-glycérol-3-phosphate (transport)
+EC 3.6.3.21 : ATPase-aminoacide polaire (transport)
+EC 3.6.3.22 : ATPase-aminoacide non polaire (transport)
+EC 3.6.3.23 : ATPase-oligopeptide (transport)
+EC 3.6.3.24 : ATPase-nickel (transport)
+EC 3.6.3.25 : ATPase-sulfate (transport)
+EC 3.6.3.26 : ATPase-nitrate (transport)
+EC 3.6.3.27 : ATPase-phosphate (transport)
+EC 3.6.3.28 : ATPase-phosphonate (transport)
+EC 3.6.3.29 : ATPase-molybdate (transport)
+EC 3.6.3.30 : ATPase-Fe3+ (transport)
+EC 3.6.3.31 : ATPase-polyamine (transport)
+EC 3.6.3.32 : ATPase-amine quaternaire (transport)
+EC 3.6.3.33 : ATPase-vitamine B12 (transport)
+EC 3.6.3.34 : ATPase-chélate fer (transport)
+EC 3.6.3.35 : ATPase-manganèse (transport)
+EC 3.6.3.36 : ATPase-taurine (transport)
+EC 3.6.3.37 : ATPase-guanine (transport)
+EC 3.6.3.38 : ATPase-polysaccharide encapsulé (transport)
+EC 3.6.3.39 : ATPase-lipopolysaccharide (transport)
+EC 3.6.3.40 : ATPase-acide téichoïque (transport)
+EC 3.6.3.41 : ATPase-hème (transport)
+EC 3.6.3.42 : ATPase-β-glucane (transport)
+EC 3.6.3.43 : ATPase-peptide (transport)
+EC 3.6.3.44 : ATPase-xénobiotique (transport)
+EC 3.6.3.45 : incluse dans EC 3.6.3.44
+EC 3.6.3.46 : ATPase-cadmium (transport)
+EC 3.6.3.47 : ATPase-acyl-CoA (transport)
+EC 3.6.3.48 : ATPase-facteur α (transport)
+EC 3.6.3.49 : channel-conductance-controlling ATPase
+EC 3.6.3.50 : ATPase-protéine de sécrétion
+EC 3.6.3.51 : ATPase-protéine mitochondriale (transport)
+EC 3.6.3.52 : ATPase-protéine de chloroplaste (transport)
+EC 3.6.3.53 : ATPase-Ag+ (export)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Groupe EC3.6 (enzymes spécifiques des anhydrides d'acides)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>EC 3.6.4 : Anhydrases impliquées dans les mouvements cellulaires et subcellulaires</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.6.4
+EC 3.6.4.1 : myosine-ATPase
+EC 3.6.4.2 : dynéine-ATPase
+EC 3.6.4.3 : microtubule-severing ATPase
+EC 3.6.4.4 : plus-end-directed kinesin ATPase
+EC 3.6.4.5 : minus-end-directed kinesin ATPase
+EC 3.6.4.6 : vesicle-fusing ATPase
+EC 3.6.4.7 : peroxisome-assembly ATPase
+EC 3.6.4.8 : protéasome-ATPase
+EC 3.6.4.9 : chapéronine-ATPase
+EC 3.6.4.10 : non-chaperonin molecular chaperone ATPase
+EC 3.6.4.11 : nucléoplasmine-ATPase
+EC 3.6.4.12 : ADN-hélicase
+EC 3.6.4.13 : ARN-hélicase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Groupe EC3.6 (enzymes spécifiques des anhydrides d'acides)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>EC 3.6.5 : Enzymes agissant sur le GTP, et impliquées dans les mouvements cellulaires et subcellulaires</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.6.5
+EC 3.6.5.1 : protéine G hétérotrimérique-GTPase
+EC 3.6.5.2 : petite GTPase monomérique
+EC 3.6.5.3 : protein-synthesizing GTPase
+EC 3.6.5.4 : signal-recognition-particle GTPase
+EC 3.6.5.5 : dynamine-GTPase
+EC 3.6.5.6 : tubuline-GTPase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Groupe EC3.7 (enzymes agissant sur les liaisons carbone-carbone)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>EC3.7.1 : Enzymes actives sur les corps cétoniques</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.7.1
+EC 3.7.1.1 : oxaloacétase
+EC 3.7.1.2 : fumarylacétoacétase
+EC 3.7.1.3 : cynuréninase
+EC 3.7.1.4 : phlorétine-hydrolase
+EC 3.7.1.5 : acylpyruvate-hydrolase
+EC 3.7.1.6 : acétylpyruvate-hydrolase
+EC 3.7.1.7 : β-dicétone-hydrolase
+EC 3.7.1.8 : 2,6-dioxo-6-phénylhexa-3-énoate-hydrolase
+EC 3.7.1.9 : 2-hydroxymuconate-semialdéhyde-hydrolase
+EC 3.7.1.10 : cyclohexane-1,3-dione-hydrolase
+EC 3.7.1.11 : cyclohexane-1,2-dione-hydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Groupe EC3.8 (enzymes agissant sur les liaisons carbone-halogène)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>EC3.8.1 : Déhalogénases (enzymes spécifiques des liaisons carbone-halogène)</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.8.1
+EC 3.8.1.1 : alkylhalidase
+EC 3.8.1.2 : (S)-2-haloacide-déhalogénase
+EC 3.8.1.3 : haloacétate-déhalogénase
+EC 3.8.1.4 : transférée vers EC 1.97.1.10
+EC 3.8.1.5 : haloalcane-déhalogénase
+EC 3.8.1.6 : 4-chlorobenzoate-déhalogénase
+EC 3.8.1.7 : 4-chlorobenzoyl-CoA-déhalogénase
+EC 3.8.1.8 : atrazine-chlorohydrolase
+EC 3.8.1.9 : (R)-2-haloacide-déhalogénase
+EC 3.8.1.10 : 2-haloacide-déhalogénase (avec inversion de configuration)
+EC 3.8.1.11 : 2-haloacide-déhalogénase (avec conservation de configuration)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Groupe EC3.9 (enzymes agissant sur les liaisons N-P)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce groupe ne contient actuellement qu'une seule enzyme, la phosphoamidase, qui hydrolyse la N-phosphocréatine en créatine.
+Liste des enzymes du groupe EC3.9
+EC 3.9.1.1 : phosphoamidase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Groupe EC3.10 : Sulfohydrolases (enzymes agissant sur les liaisons N-S)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.10
+EC 3.10.1.1 : N-sulfoglucosamine-sulfohydrolase
+EC 3.10.1.2 : cyclamate-sulfohydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Groupe EC3.11 (enzymes agissant sur les liaisons C-P)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.11
+EC 3.11.1.1 : phosphonoacétaldehyde-hydrolase
+EC 3.11.1.2 : phosphonoacétate-hydrolase
+EC 3.11.1.3 : phosphonopyruvate-hydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Groupe EC3.12 (enzymes agissant sur les liaisons S-S)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce groupe ne contient qu'une seule enzyme, la trithionate-hydrolase, qui hydrolyse le trithionate en thiosulfate et sulfate.
+Liste des enzymes du groupe EC3.12
+EC 3.12.1.1 : trithionate-hydrolase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Classification EC</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Groupe EC3.13 (enzymes agissant sur les liaisons C-S)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des enzymes du groupe EC3.13
+EC 3.13.1.1 : UDP-sulfoquinovose-synthase
+EC 3.13.1.2 : supprimée (peut-être remplacée par EC 4.4.1.21)
+EC 3.13.1.3 : 2'-hydroxybiphényl-2-sulfinate-désulfinase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hydrolase</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrolase</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Exemples d'hydrolases (par ordre alphabétique) avec leur type d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>aminopeptidase ou aminoacyl-peptidase hydrolase (peptidase)
 carboxypeptidase A ou peptidyl-L aminoacide hydrolase (peptidase)
